--- a/stats/stats/actor_waiting.xlsx
+++ b/stats/stats/actor_waiting.xlsx
@@ -395,16 +395,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
@@ -414,16 +414,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.4594594594595</v>
+        <v>201.6838</v>
       </c>
       <c r="C3" t="n">
-        <v>109.5579428349212</v>
+        <v>88.52160000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>109.4323352129108</v>
+        <v>124.658</v>
       </c>
       <c r="E3" t="n">
-        <v>109.4206688703092</v>
+        <v>157.1134</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.65114190072821</v>
+        <v>32.55990551352092</v>
       </c>
       <c r="C4" t="n">
-        <v>99.728863814308</v>
+        <v>79.28790606296505</v>
       </c>
       <c r="D4" t="n">
-        <v>99.6788788666175</v>
+        <v>76.35595250074782</v>
       </c>
       <c r="E4" t="n">
-        <v>99.62539986411304</v>
+        <v>61.67828615190705</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -509,16 +509,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C8" t="n">
-        <v>197.75</v>
+        <v>122</v>
       </c>
       <c r="D8" t="n">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E8" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
